--- a/Assets/StreamingAssets/bytes.xlsx
+++ b/Assets/StreamingAssets/bytes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="setting" sheetId="16" r:id="rId1"/>
@@ -3481,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -3553,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3579,7 +3579,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -3605,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -3631,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3657,7 +3657,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -3683,7 +3683,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3709,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3735,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -3784,7 +3784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/Assets/StreamingAssets/bytes.xlsx
+++ b/Assets/StreamingAssets/bytes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="setting" sheetId="16" r:id="rId1"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>building_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>upgrate_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>start_choose</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +252,14 @@
   </si>
   <si>
     <t>baseMoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +627,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2">
         <v>10000</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2">
         <v>100</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <f>4*B7</f>
@@ -708,7 +708,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2">
         <v>100</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2">
         <f>-B11/2</f>
@@ -725,7 +725,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <f>9*B11</f>
@@ -734,7 +734,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>1000</v>
@@ -3481,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3784,8 +3784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3801,19 +3801,19 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4472,7 +4472,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -4889,7 +4889,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5105,7 +5105,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
